--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="547">
   <si>
     <t>CourseID</t>
   </si>
@@ -562,1078 +562,1099 @@
     <t>Paula Mia  Campo,Della L Adams-meyer</t>
   </si>
   <si>
+    <t>Theresa  Mansor,Cheryl  Mendez</t>
+  </si>
+  <si>
+    <t>William  Heckman,Paula Mia  Campo</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Brittany M Smith</t>
+  </si>
+  <si>
+    <t>Della L Adams-meyer,John  Toland</t>
+  </si>
+  <si>
+    <t>William  Heckman,Kelly  Bird</t>
+  </si>
+  <si>
+    <t>David B Bean,Paula Mia  Campo</t>
+  </si>
+  <si>
+    <t>Della L Adams-meyer,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Shaylese  Lassiter</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Della L Adams-meyer,Cheryl  Mendez</t>
+  </si>
+  <si>
+    <t>William  Heckman,David B Bean</t>
+  </si>
+  <si>
+    <t>Della L Adams-meyer,Brittany M Smith</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Adhan  Perez</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Crystal A Aikens</t>
+  </si>
+  <si>
+    <t>Beth Ann  Daley,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>John  Toland,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Gavin  Powell</t>
+  </si>
+  <si>
+    <t>Antoinette  Gray,Susan  Rosenberg</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Gina  Walk</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Jason D Little,Katie L Marakos</t>
+  </si>
+  <si>
+    <t>Amy  Smith,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Kay  Maltz,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Adhan  Perez</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Gavin  Powell</t>
+  </si>
+  <si>
+    <t>Susan  Rosenberg,Thomas  Ward</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Randi  Gupton,Peter  Campo</t>
+  </si>
+  <si>
+    <t>Amber  Fenton,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Julie  Land,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,Brittany M Smith,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Monica  Thomas,Amy  Smith</t>
+  </si>
+  <si>
+    <t>David B Bean,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Crystal A Aikens</t>
+  </si>
+  <si>
+    <t>Beth Ann  Daley,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Teonnah  Thompson</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Jason D Little</t>
+  </si>
+  <si>
+    <t>William  Heckman,John  Toland</t>
+  </si>
+  <si>
+    <t>John  Toland,Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Sarah M Dickey,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Antoinette  Gray,Susan  Rosenberg,Gina  Walk</t>
+  </si>
+  <si>
+    <t>Amy  Smith,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Kathryn  Howard,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Julie  Land</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Antoinette  Gray,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>John  Toland,Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Charlotte  Phillip-clarke,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Leslie  Harvey,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Shaylese  Lassiter,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Julie  Land,Susan  Biglin</t>
+  </si>
+  <si>
+    <t>Barbara  Shumski,Barbara  Grandy</t>
+  </si>
+  <si>
+    <t>Ericka  Chapman,Matthew  Freund</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Teonnah  Thompson</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Kristina  Santoro</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Julie  Land,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Ericka  Chapman,Gavin  Powell,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Brittany M Smith</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Susan  Rosenberg</t>
+  </si>
+  <si>
+    <t>Jason D Little,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Chalon  Eberhart</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Georgiana  Murnaghan,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Robert  Newman,Pamela  Buzby Rosenberg,Nina  Ficca</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Riana  Cordoba</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Megan  Davis-white,Jason D Little</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Joyce  Sidibe Williams,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Nina  Ficca,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>David B Bean,Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Matthew  Freund</t>
+  </si>
+  <si>
+    <t>Antoinette  Gray,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,John  Dattalo,Andrea  Vreeland</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Thomas  Ward</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Danielle  Newsome</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Kay  Maltz,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Julie  Land</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Regina T Gordon,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,John  Toland</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Cheryl J Alessandrine,Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Susan  Biglin</t>
+  </si>
+  <si>
+    <t>Barbara  Shumski,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Barbara  Grandy,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Leslie  Harvey</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Alyssa  Scull,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kay  Maltz,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Lourdes  Vidal-turner</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Robert  Newman,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Nina  Ficca</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Francesca L Mancuso,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Christy  Feehan,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Michael  Miltenberger,Kimberly  Santoro</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Tiffany  Smith,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Gionna A Botto-malecki,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Georgiana  Murnaghan,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Leslie  Harvey,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>Leslie  Harvey,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Michael  Miltenberger,Kimberly  Santoro,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,Paula Mia  Campo</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Richard  Prince</t>
+  </si>
+  <si>
     <t>Theresa  Mansor,Brittany M Smith</t>
   </si>
   <si>
-    <t>Shaylese  Lassiter,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>William  Heckman,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Caroline  Mccabe,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Juanita  Hyman,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Latisha  Edwards,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Crystal A Aikens</t>
-  </si>
-  <si>
-    <t>William  Heckman,Kelly  Bird</t>
-  </si>
-  <si>
-    <t>Theresa  Mansor,John  Toland</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Caroline  Mccabe,Salma  Hussein</t>
+    <t>Adhan  Perez,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Katie L Marakos</t>
+  </si>
+  <si>
+    <t>Allison M Devinney,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Kristina  Santoro</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Danielle  Newsome</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Michael  Miltenberger,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Elizabeth  Morales,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Ericka  Chapman,Susan  Rosenberg</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Shaylese  Lassiter</t>
+  </si>
+  <si>
+    <t>Amy  Smith,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Randi  Gupton,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>David B Bean,Della L Adams-meyer</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Kay  Maltz,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Rosalba  Alarcon,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Andrea  Vreeland</t>
+  </si>
+  <si>
+    <t>Christy  Feehan,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Susan  Rosenberg,Gina  Walk</t>
   </si>
   <si>
     <t>Monica  Thomas,Jason D Little</t>
   </si>
   <si>
-    <t>David B Bean,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Jason D Little,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Gavin  Powell</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Shaylese  Lassiter</t>
-  </si>
-  <si>
-    <t>Megan  Davis-white,Monica  Thomas</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Sarah M Dickey</t>
+    <t>Katie L Marakos,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Nina  Ficca</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,John  Toland</t>
   </si>
   <si>
     <t>Cheryl J Alessandrine,Caroline  Mccabe</t>
   </si>
   <si>
-    <t>Chalon  Eberhart,Teonnah  Thompson</t>
+    <t>Kathy N Lewis,Danielle  Newsome,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Gary  Elwell,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Rosalba  Alarcon,Riana  Cordoba</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Lourdes  Vidal-turner</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Christy  Feehan,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Jason D Little,Katie L Marakos</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Christy  Feehan,Kimberly  Santoro,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Barbara  Grandy</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Lauren  Kaplan,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Nina  Ficca</t>
+  </si>
+  <si>
+    <t>Rosalba  Alarcon,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Gionna A Botto-malecki,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kay  Maltz,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Lourdes  Vidal-turner,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Christy  Feehan,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Chalon  Eberhart</t>
   </si>
   <si>
     <t>Amber  Fenton,Juanita  Hyman</t>
   </si>
   <si>
-    <t>Susan  Rosenberg,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Chalon  Eberhart,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Evelyn  Perez,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>Crystal A Aikens,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Matthew  Freund</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Sarah M Dickey</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,Beth Ann  Daley,Gavin  Powell</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Amy  Smith,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>William  Heckman,David B Bean</t>
-  </si>
-  <si>
-    <t>Theresa  Mansor,Cheryl  Mendez</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Theresa  Mansor</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Crystal A Aikens,Gavin  Powell</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Shaylese  Lassiter</t>
-  </si>
-  <si>
-    <t>Latisha  Edwards,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>John  Toland,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>David B Bean,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>John  Toland,Paula  Dever</t>
+    <t>Kathryn  Howard,Danielle  Newsome</t>
+  </si>
+  <si>
+    <t>Julie  Land,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Barbara  Grandy</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Charlotte  Nagele Boles,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Michael  Miltenberger,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Gionna A Botto-malecki,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,Cheryl  Mendez,Brittany M Smith</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Thomas  Ward,Gina  Walk</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Cheryl J Alessandrine,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Lauren  Kaplan,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Kimberly  Shick,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Andrea  Vreeland</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Lourdes  Vidal-turner</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Lourdes  Vidal-turner</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>William  Heckman,David B Bean,Della L Adams-meyer</t>
+  </si>
+  <si>
+    <t>Theresa  Mansor,Paula  Dever,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Sarah M Dickey,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Salma  Hussein,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Barbara  Grandy,Leslie  Harvey</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Elizabeth  Morales,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Rosalba  Alarcon,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Michael  Miltenberger,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,David B Bean,Paula Mia  Campo</t>
+  </si>
+  <si>
+    <t>Theresa  Mansor,Cheryl  Mendez,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Adhan  Perez,Crystal A Aikens</t>
+  </si>
+  <si>
+    <t>Beth Ann  Daley,Matthew  Freund,Gavin  Powell</t>
+  </si>
+  <si>
+    <t>Antoinette  Gray,Thomas  Ward,Jason D Little</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Amy  Smith,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Amy L Williams,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Rosalba  Alarcon,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Donna Marie  Shea,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Gionna A Botto-malecki,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Della L Adams-meyer,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,John  Toland,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Monica  Thomas,Jason D Little</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Allison M Devinney,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Randi  Gupton,Peter  Campo,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Barbara  Grandy,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Leslie  Harvey,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Nicole  Lindsay,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Robert  Newman,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>Anthony  Nistico,Andrea  Vreeland,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Elizabeth  Morales,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Amber  Fenton,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Salma  Hussein,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Kathryn  Howard,Susan  Biglin,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Barbara  Grandy,Latisha  Edwards,Leslie  Harvey</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Lauren  Kaplan,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Virginia U Millar,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Elizabeth  Tegler,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Anthony  Nistico,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>John  Toland,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Kristina  Santoro,Amber  Fenton</t>
   </si>
   <si>
     <t>Kathy N Lewis,Kathryn  Howard,Jennifer  Fisher</t>
   </si>
   <si>
-    <t>Crystal A Aikens,Matthew  Freund,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Kathy N Lewis,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Susan  Biglin,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>Latisha  Edwards,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Brittany M Smith,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Julie  Land,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Matthew  Freund,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Kristina  Santoro,Amber  Fenton</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Julie  Land</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Julie  Land</t>
-  </si>
-  <si>
-    <t>Susan  Biglin,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Crystal A Aikens,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Cheryl  Mendez</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Elizabeth  Morales,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Jiovanna  Debella,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>Jason D Little,Tracey  Captan,Sarah M Dickey</t>
-  </si>
-  <si>
-    <t>Kathy N Lewis,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Donna Marie  Shea,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Karissa  Ksiazek,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>William  Heckman,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Juanita  Hyman,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Alyssa  Scull,Betsy  Nieves</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Joan  Kulbok,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Elizabeth  Tegler,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,Kate  Mccabe</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Teonnah  Thompson,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Susan  Biglin,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Alison  Bell,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Kimberly  Ailes</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,John  Toland</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Sarah M Dickey</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Amber  Fenton</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Susan  Biglin</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Alyssa  Scull,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Shick,Betsy  Nieves</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Elizabeth  Tegler</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Francesca L Mancuso,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Christy  Feehan,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Tiffany  Smith,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Gionna A Botto-malecki,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Georgiana  Murnaghan,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Caroline  Mccabe,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Teonnah  Thompson,Kristina  Santoro</t>
-  </si>
-  <si>
-    <t>Kathy N Lewis,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Danielle  Newsome</t>
-  </si>
-  <si>
-    <t>Julie  Land,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Kimberly  Santoro,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>David B Bean,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Brittany M Smith,Crystal A Aikens</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Ericka  Chapman</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Alyssa  Scull,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Elizabeth  Tegler,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Rosalba  Alarcon,Kate  Mccabe</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Tiffany  Jacobs,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Crystal A Aikens,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Megan  Davis-white,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine,Amber  Fenton</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Susan  Biglin,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>John  Toland,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Crystal A Aikens</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Antoinette  Gray,Susan  Rosenberg</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Alyssa  Scull,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Rosalba  Alarcon,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Andrea  Vreeland</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Susan  Rosenberg</t>
-  </si>
-  <si>
-    <t>Monica  Thomas,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Caroline  Mccabe,Kristina  Santoro</t>
-  </si>
-  <si>
-    <t>Amber  Fenton,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Elizabeth  Morales</t>
+    <t>Latisha  Edwards,Gary  Elwell,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Tiffany  Jacobs,Holly  Lindner</t>
   </si>
   <si>
     <t>Kay  Maltz,Kimberly  Shick</t>
   </si>
   <si>
-    <t>Virginia U Millar,Kimberly  Ailes</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Elizabeth  Tegler</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Jason D Little,Katie L Marakos,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Catherine  Hackney,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Michael  Miltenberger,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Gary  Elwell,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Donna Marie  Shea,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Brandi  Sheridan,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Elizabeth  Morales,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Betsy  Nieves</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Latisha  Edwards,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Brandi  Sheridan,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Virginia U Millar,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,Della L Adams-meyer,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Antoinette  Gray,Teonnah  Thompson,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Alison  Bell,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Anthony  Nistico,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Alison  Bell</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Andrea  Vreeland</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Theresa  Mansor,John  Toland</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Brittany M Smith,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Monica  Thomas,Jason D Little,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Barbara  Grandy,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Nicole  Lindsay,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Kimberly  Shick,Kimberly  Ailes,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Anthony  Nistico,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Joyce  Sidibe Williams,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Della L Adams-meyer,Theresa  Mansor</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Paula  Dever,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Evelyn  Perez,Crystal A Aikens,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Susan  Rosenberg,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Kathryn  Howard,Julie  Land</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Melissa  Wargo-brown,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Amy L Williams,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Nina  Ficca,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Jonathan  Lelli,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>William  Heckman,David B Bean,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Evelyn  Perez,Ericka  Chapman</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Gavin  Powell,Monica  Thomas</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Kristina  Santoro,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Danielle  Newsome,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Carol H Buzby,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Alison  Bell,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Holly  Lindner,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Rosalba  Alarcon,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Christy  Feehan,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Tiffany  Smith,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Elizabeth  Morales,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Evelyn  Perez,Amber  Fenton</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Danielle  Newsome,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Tiffany  Smith,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Holly  Lindner,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Shick,Lourdes  Vidal-turner,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Brandi  Sheridan,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Michael  Miltenberger,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Lauren  Kaplan,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>William  Heckman,Della L Adams-meyer</t>
-  </si>
-  <si>
-    <t>Monica  Thomas,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Susan  Biglin</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Evelyn  Perez,Adhan  Perez,Jason D Little</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Amy  Smith,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Kathy N Lewis,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Barbara  Grandy,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Kimberly  Shick,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Deborah  Tormey,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Christy  Feehan,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Virginia U Millar,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Georgiana  Murnaghan</t>
+    <t>Lourdes  Vidal-turner,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Deborah  Tormey,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Anthony  Nistico,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Carol H Buzby,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Virginia U Millar,Elizabeth  Morales</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2316,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2339,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2362,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2385,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2408,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2431,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2454,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2477,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2500,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2523,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2546,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2569,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2592,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2615,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2638,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2661,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2684,7 +2705,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2707,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2730,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2753,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2776,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2799,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2822,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2845,7 +2866,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2868,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2891,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2914,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2937,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2960,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2983,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3006,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3029,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3052,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3075,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3098,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3121,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3144,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3167,7 +3188,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3190,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3213,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3236,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3259,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3282,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3466,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3489,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3512,7 +3533,7 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3535,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3558,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3581,7 +3602,7 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3604,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3627,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3650,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3673,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3696,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3857,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4317,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4340,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4363,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4386,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4409,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4432,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4455,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4478,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4501,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4524,7 +4545,7 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4547,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4570,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4593,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4616,7 +4637,7 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4639,7 +4660,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4662,7 +4683,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4685,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4708,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4731,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4754,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4777,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4800,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4823,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4846,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4869,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4892,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4915,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4938,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4961,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4984,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5007,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5030,7 +5051,7 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5053,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5076,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5099,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5122,7 +5143,7 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5145,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5168,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5191,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5214,7 +5235,7 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5237,7 +5258,7 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5559,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5582,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5628,7 +5649,7 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5651,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5674,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5697,7 +5718,7 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5743,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5766,7 +5787,7 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5789,7 +5810,7 @@
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5812,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5835,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5858,7 +5879,7 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5881,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5904,7 +5925,7 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5927,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="G171" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5950,7 +5971,7 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5973,7 +5994,7 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5996,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>256</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6019,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6042,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6065,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="G177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6088,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6111,7 +6132,7 @@
         <v>2</v>
       </c>
       <c r="G179" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6157,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="G181" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6203,7 +6224,7 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6226,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6249,7 +6270,7 @@
         <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6272,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6295,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6318,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6341,7 +6362,7 @@
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6364,7 +6385,7 @@
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6387,7 +6408,7 @@
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6410,7 +6431,7 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6433,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="G193" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6456,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6479,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="G195" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6502,7 +6523,7 @@
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6525,7 +6546,7 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6548,7 +6569,7 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6571,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6594,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6617,7 +6638,7 @@
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6640,7 +6661,7 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6686,7 +6707,7 @@
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6709,7 +6730,7 @@
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6732,7 +6753,7 @@
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6755,7 +6776,7 @@
         <v>2</v>
       </c>
       <c r="G207" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6778,7 +6799,7 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6801,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>345</v>
+        <v>191</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6824,7 +6845,7 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6870,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6893,7 +6914,7 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6916,7 +6937,7 @@
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6939,7 +6960,7 @@
         <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6985,7 +7006,7 @@
         <v>2</v>
       </c>
       <c r="G217" t="s">
-        <v>346</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7008,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7031,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="G219" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7054,7 +7075,7 @@
         <v>2</v>
       </c>
       <c r="G220" t="s">
-        <v>347</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7077,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="G221" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7100,7 +7121,7 @@
         <v>2</v>
       </c>
       <c r="G222" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7123,7 +7144,7 @@
         <v>2</v>
       </c>
       <c r="G223" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7146,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="G224" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7169,7 +7190,7 @@
         <v>2</v>
       </c>
       <c r="G225" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7192,7 +7213,7 @@
         <v>2</v>
       </c>
       <c r="G226" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7215,7 +7236,7 @@
         <v>2</v>
       </c>
       <c r="G227" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7238,7 +7259,7 @@
         <v>2</v>
       </c>
       <c r="G228" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7261,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="G229" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7284,7 +7305,7 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7307,7 +7328,7 @@
         <v>2</v>
       </c>
       <c r="G231" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7330,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="G232" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7353,7 +7374,7 @@
         <v>2</v>
       </c>
       <c r="G233" t="s">
-        <v>245</v>
+        <v>351</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7376,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="G234" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7399,7 +7420,7 @@
         <v>2</v>
       </c>
       <c r="G235" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7422,7 +7443,7 @@
         <v>2</v>
       </c>
       <c r="G236" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7445,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="G237" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7468,7 +7489,7 @@
         <v>2</v>
       </c>
       <c r="G238" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7491,7 +7512,7 @@
         <v>2</v>
       </c>
       <c r="G239" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7514,7 +7535,7 @@
         <v>2</v>
       </c>
       <c r="G240" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7537,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="G241" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7560,7 +7581,7 @@
         <v>2</v>
       </c>
       <c r="G242" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7583,7 +7604,7 @@
         <v>2</v>
       </c>
       <c r="G243" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7606,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="G244" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7629,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="G245" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7652,7 +7673,7 @@
         <v>2</v>
       </c>
       <c r="G246" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7675,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="G247" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7698,7 +7719,7 @@
         <v>2</v>
       </c>
       <c r="G248" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7721,7 +7742,7 @@
         <v>2</v>
       </c>
       <c r="G249" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7744,7 +7765,7 @@
         <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7767,7 +7788,7 @@
         <v>2</v>
       </c>
       <c r="G251" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7790,7 +7811,7 @@
         <v>2</v>
       </c>
       <c r="G252" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7813,7 +7834,7 @@
         <v>2</v>
       </c>
       <c r="G253" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7836,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="G254" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7859,7 +7880,7 @@
         <v>3</v>
       </c>
       <c r="G255" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7882,7 +7903,7 @@
         <v>2</v>
       </c>
       <c r="G256" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7905,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="G257" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7928,7 +7949,7 @@
         <v>2</v>
       </c>
       <c r="G258" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7951,7 +7972,7 @@
         <v>2</v>
       </c>
       <c r="G259" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7974,7 +7995,7 @@
         <v>2</v>
       </c>
       <c r="G260" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7997,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="G261" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -8020,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="G262" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -8043,7 +8064,7 @@
         <v>2</v>
       </c>
       <c r="G263" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -8066,7 +8087,7 @@
         <v>2</v>
       </c>
       <c r="G264" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -8089,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="G265" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -8112,7 +8133,7 @@
         <v>2</v>
       </c>
       <c r="G266" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -8135,7 +8156,7 @@
         <v>2</v>
       </c>
       <c r="G267" t="s">
-        <v>368</v>
+        <v>207</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8158,7 +8179,7 @@
         <v>2</v>
       </c>
       <c r="G268" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -8181,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="G269" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -8204,7 +8225,7 @@
         <v>2</v>
       </c>
       <c r="G270" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -8227,7 +8248,7 @@
         <v>2</v>
       </c>
       <c r="G271" t="s">
-        <v>206</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -8250,7 +8271,7 @@
         <v>2</v>
       </c>
       <c r="G272" t="s">
-        <v>199</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8273,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="G273" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8296,7 +8317,7 @@
         <v>2</v>
       </c>
       <c r="G274" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8319,7 +8340,7 @@
         <v>2</v>
       </c>
       <c r="G275" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8342,7 +8363,7 @@
         <v>2</v>
       </c>
       <c r="G276" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8365,7 +8386,7 @@
         <v>2</v>
       </c>
       <c r="G277" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8388,7 +8409,7 @@
         <v>2</v>
       </c>
       <c r="G278" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8411,7 +8432,7 @@
         <v>2</v>
       </c>
       <c r="G279" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8434,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="G280" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8457,7 +8478,7 @@
         <v>2</v>
       </c>
       <c r="G281" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8480,7 +8501,7 @@
         <v>2</v>
       </c>
       <c r="G282" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8503,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="G283" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8526,7 +8547,7 @@
         <v>2</v>
       </c>
       <c r="G284" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8549,7 +8570,7 @@
         <v>2</v>
       </c>
       <c r="G285" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8572,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="G286" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8595,7 +8616,7 @@
         <v>2</v>
       </c>
       <c r="G287" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8618,7 +8639,7 @@
         <v>2</v>
       </c>
       <c r="G288" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8641,7 +8662,7 @@
         <v>2</v>
       </c>
       <c r="G289" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8664,7 +8685,7 @@
         <v>2</v>
       </c>
       <c r="G290" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8687,7 +8708,7 @@
         <v>2</v>
       </c>
       <c r="G291" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8710,7 +8731,7 @@
         <v>2</v>
       </c>
       <c r="G292" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8733,7 +8754,7 @@
         <v>2</v>
       </c>
       <c r="G293" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8756,7 +8777,7 @@
         <v>2</v>
       </c>
       <c r="G294" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8779,7 +8800,7 @@
         <v>2</v>
       </c>
       <c r="G295" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8802,7 +8823,7 @@
         <v>2</v>
       </c>
       <c r="G296" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -8825,7 +8846,7 @@
         <v>2</v>
       </c>
       <c r="G297" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -8848,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="G298" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -8871,7 +8892,7 @@
         <v>2</v>
       </c>
       <c r="G299" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8894,7 +8915,7 @@
         <v>3</v>
       </c>
       <c r="G300" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8917,7 +8938,7 @@
         <v>2</v>
       </c>
       <c r="G301" t="s">
-        <v>227</v>
+        <v>386</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8940,7 +8961,7 @@
         <v>2</v>
       </c>
       <c r="G302" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -8963,7 +8984,7 @@
         <v>2</v>
       </c>
       <c r="G303" t="s">
-        <v>383</v>
+        <v>211</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -8986,7 +9007,7 @@
         <v>2</v>
       </c>
       <c r="G304" t="s">
-        <v>205</v>
+        <v>388</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -9009,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="G305" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -9032,7 +9053,7 @@
         <v>2</v>
       </c>
       <c r="G306" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -9055,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="G307" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -9078,7 +9099,7 @@
         <v>2</v>
       </c>
       <c r="G308" t="s">
-        <v>386</v>
+        <v>241</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9101,7 +9122,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -9124,7 +9145,7 @@
         <v>2</v>
       </c>
       <c r="G310" t="s">
-        <v>387</v>
+        <v>249</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -9147,7 +9168,7 @@
         <v>2</v>
       </c>
       <c r="G311" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -9170,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="G312" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -9193,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="G313" t="s">
-        <v>199</v>
+        <v>392</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -9216,7 +9237,7 @@
         <v>2</v>
       </c>
       <c r="G314" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9239,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="G315" t="s">
-        <v>391</v>
+        <v>182</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9262,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="G316" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -9285,7 +9306,7 @@
         <v>2</v>
       </c>
       <c r="G317" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -9308,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="G318" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9331,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="G319" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -9354,7 +9375,7 @@
         <v>2</v>
       </c>
       <c r="G320" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9377,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="G321" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9400,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="G322" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -9423,7 +9444,7 @@
         <v>2</v>
       </c>
       <c r="G323" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -9446,7 +9467,7 @@
         <v>2</v>
       </c>
       <c r="G324" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -9469,7 +9490,7 @@
         <v>2</v>
       </c>
       <c r="G325" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -9492,7 +9513,7 @@
         <v>2</v>
       </c>
       <c r="G326" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -9515,7 +9536,7 @@
         <v>2</v>
       </c>
       <c r="G327" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9538,7 +9559,7 @@
         <v>2</v>
       </c>
       <c r="G328" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9561,7 +9582,7 @@
         <v>2</v>
       </c>
       <c r="G329" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9607,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="G331" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9630,7 +9651,7 @@
         <v>2</v>
       </c>
       <c r="G332" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -9653,7 +9674,7 @@
         <v>2</v>
       </c>
       <c r="G333" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9699,7 +9720,7 @@
         <v>2</v>
       </c>
       <c r="G335" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9722,7 +9743,7 @@
         <v>2</v>
       </c>
       <c r="G336" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -9745,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="G337" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -9768,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="G338" t="s">
-        <v>282</v>
+        <v>395</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -9791,7 +9812,7 @@
         <v>2</v>
       </c>
       <c r="G339" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9814,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="G340" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -9837,7 +9858,7 @@
         <v>2</v>
       </c>
       <c r="G341" t="s">
-        <v>293</v>
+        <v>353</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -9860,7 +9881,7 @@
         <v>2</v>
       </c>
       <c r="G342" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9883,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="G343" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -9906,7 +9927,7 @@
         <v>2</v>
       </c>
       <c r="G344" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -9929,7 +9950,7 @@
         <v>2</v>
       </c>
       <c r="G345" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -9952,7 +9973,7 @@
         <v>2</v>
       </c>
       <c r="G346" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -9975,7 +9996,7 @@
         <v>2</v>
       </c>
       <c r="G347" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -9998,7 +10019,7 @@
         <v>2</v>
       </c>
       <c r="G348" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -10021,7 +10042,7 @@
         <v>2</v>
       </c>
       <c r="G349" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -10044,7 +10065,7 @@
         <v>2</v>
       </c>
       <c r="G350" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -10067,7 +10088,7 @@
         <v>2</v>
       </c>
       <c r="G351" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -10090,7 +10111,7 @@
         <v>2</v>
       </c>
       <c r="G352" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -10113,7 +10134,7 @@
         <v>2</v>
       </c>
       <c r="G353" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -10136,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="G354" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -10159,7 +10180,7 @@
         <v>2</v>
       </c>
       <c r="G355" t="s">
-        <v>265</v>
+        <v>402</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -10182,7 +10203,7 @@
         <v>2</v>
       </c>
       <c r="G356" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -10205,7 +10226,7 @@
         <v>2</v>
       </c>
       <c r="G357" t="s">
-        <v>397</v>
+        <v>263</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -10228,7 +10249,7 @@
         <v>2</v>
       </c>
       <c r="G358" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -10251,7 +10272,7 @@
         <v>2</v>
       </c>
       <c r="G359" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -10274,7 +10295,7 @@
         <v>2</v>
       </c>
       <c r="G360" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -10297,7 +10318,7 @@
         <v>2</v>
       </c>
       <c r="G361" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -10320,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="G362" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -10343,7 +10364,7 @@
         <v>2</v>
       </c>
       <c r="G363" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -10366,7 +10387,7 @@
         <v>2</v>
       </c>
       <c r="G364" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -10389,7 +10410,7 @@
         <v>2</v>
       </c>
       <c r="G365" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -10412,7 +10433,7 @@
         <v>2</v>
       </c>
       <c r="G366" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -10435,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="G367" t="s">
-        <v>400</v>
+        <v>210</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -10458,7 +10479,7 @@
         <v>2</v>
       </c>
       <c r="G368" t="s">
-        <v>183</v>
+        <v>404</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -10481,7 +10502,7 @@
         <v>2</v>
       </c>
       <c r="G369" t="s">
-        <v>194</v>
+        <v>405</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -10504,7 +10525,7 @@
         <v>2</v>
       </c>
       <c r="G370" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -10527,7 +10548,7 @@
         <v>2</v>
       </c>
       <c r="G371" t="s">
-        <v>348</v>
+        <v>274</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -10550,7 +10571,7 @@
         <v>2</v>
       </c>
       <c r="G372" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -10573,7 +10594,7 @@
         <v>2</v>
       </c>
       <c r="G373" t="s">
-        <v>401</v>
+        <v>231</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -10596,7 +10617,7 @@
         <v>2</v>
       </c>
       <c r="G374" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -10619,7 +10640,7 @@
         <v>2</v>
       </c>
       <c r="G375" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -10642,7 +10663,7 @@
         <v>2</v>
       </c>
       <c r="G376" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -10665,7 +10686,7 @@
         <v>2</v>
       </c>
       <c r="G377" t="s">
-        <v>386</v>
+        <v>240</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -10688,7 +10709,7 @@
         <v>2</v>
       </c>
       <c r="G378" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -10711,7 +10732,7 @@
         <v>2</v>
       </c>
       <c r="G379" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -10734,7 +10755,7 @@
         <v>2</v>
       </c>
       <c r="G380" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -10757,7 +10778,7 @@
         <v>2</v>
       </c>
       <c r="G381" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -10780,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="G382" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -10803,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="G383" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -10826,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="G384" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -10849,7 +10870,7 @@
         <v>2</v>
       </c>
       <c r="G385" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -10872,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="G386" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -10895,7 +10916,7 @@
         <v>2</v>
       </c>
       <c r="G387" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -10918,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="G388" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -10941,7 +10962,7 @@
         <v>2</v>
       </c>
       <c r="G389" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -10964,7 +10985,7 @@
         <v>2</v>
       </c>
       <c r="G390" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -10987,7 +11008,7 @@
         <v>2</v>
       </c>
       <c r="G391" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -11010,7 +11031,7 @@
         <v>2</v>
       </c>
       <c r="G392" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -11033,7 +11054,7 @@
         <v>2</v>
       </c>
       <c r="G393" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -11056,7 +11077,7 @@
         <v>2</v>
       </c>
       <c r="G394" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -11079,7 +11100,7 @@
         <v>2</v>
       </c>
       <c r="G395" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -11102,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="G396" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -11125,7 +11146,7 @@
         <v>2</v>
       </c>
       <c r="G397" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -11148,7 +11169,7 @@
         <v>2</v>
       </c>
       <c r="G398" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -11171,7 +11192,7 @@
         <v>2</v>
       </c>
       <c r="G399" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -11194,7 +11215,7 @@
         <v>2</v>
       </c>
       <c r="G400" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -11217,7 +11238,7 @@
         <v>2</v>
       </c>
       <c r="G401" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -11240,7 +11261,7 @@
         <v>2</v>
       </c>
       <c r="G402" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -11263,7 +11284,7 @@
         <v>2</v>
       </c>
       <c r="G403" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -11286,7 +11307,7 @@
         <v>2</v>
       </c>
       <c r="G404" t="s">
-        <v>340</v>
+        <v>408</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -11309,7 +11330,7 @@
         <v>2</v>
       </c>
       <c r="G405" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -11332,7 +11353,7 @@
         <v>2</v>
       </c>
       <c r="G406" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -11355,7 +11376,7 @@
         <v>2</v>
       </c>
       <c r="G407" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -11378,7 +11399,7 @@
         <v>2</v>
       </c>
       <c r="G408" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -11401,7 +11422,7 @@
         <v>2</v>
       </c>
       <c r="G409" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -11424,7 +11445,7 @@
         <v>2</v>
       </c>
       <c r="G410" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -11447,7 +11468,7 @@
         <v>2</v>
       </c>
       <c r="G411" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -11470,7 +11491,7 @@
         <v>2</v>
       </c>
       <c r="G412" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -11493,7 +11514,7 @@
         <v>2</v>
       </c>
       <c r="G413" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -11516,7 +11537,7 @@
         <v>2</v>
       </c>
       <c r="G414" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -11539,7 +11560,7 @@
         <v>2</v>
       </c>
       <c r="G415" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -11562,7 +11583,7 @@
         <v>2</v>
       </c>
       <c r="G416" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -11585,7 +11606,7 @@
         <v>2</v>
       </c>
       <c r="G417" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -11654,7 +11675,7 @@
         <v>2</v>
       </c>
       <c r="G420" t="s">
-        <v>415</v>
+        <v>242</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -11677,7 +11698,7 @@
         <v>2</v>
       </c>
       <c r="G421" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -11700,7 +11721,7 @@
         <v>2</v>
       </c>
       <c r="G422" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -11723,7 +11744,7 @@
         <v>2</v>
       </c>
       <c r="G423" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -11746,7 +11767,7 @@
         <v>2</v>
       </c>
       <c r="G424" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -11769,7 +11790,7 @@
         <v>2</v>
       </c>
       <c r="G425" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -11792,7 +11813,7 @@
         <v>2</v>
       </c>
       <c r="G426" t="s">
-        <v>277</v>
+        <v>418</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -11815,7 +11836,7 @@
         <v>2</v>
       </c>
       <c r="G427" t="s">
-        <v>326</v>
+        <v>419</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -11861,7 +11882,7 @@
         <v>2</v>
       </c>
       <c r="G429" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -11884,7 +11905,7 @@
         <v>2</v>
       </c>
       <c r="G430" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -11907,7 +11928,7 @@
         <v>2</v>
       </c>
       <c r="G431" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -11930,7 +11951,7 @@
         <v>3</v>
       </c>
       <c r="G432" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -11953,7 +11974,7 @@
         <v>2</v>
       </c>
       <c r="G433" t="s">
-        <v>331</v>
+        <v>186</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -11976,7 +11997,7 @@
         <v>2</v>
       </c>
       <c r="G434" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -11999,7 +12020,7 @@
         <v>2</v>
       </c>
       <c r="G435" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -12022,7 +12043,7 @@
         <v>2</v>
       </c>
       <c r="G436" t="s">
-        <v>334</v>
+        <v>427</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -12045,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="G437" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -12068,7 +12089,7 @@
         <v>2</v>
       </c>
       <c r="G438" t="s">
-        <v>296</v>
+        <v>429</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -12091,7 +12112,7 @@
         <v>2</v>
       </c>
       <c r="G439" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -12114,7 +12135,7 @@
         <v>2</v>
       </c>
       <c r="G440" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -12137,7 +12158,7 @@
         <v>2</v>
       </c>
       <c r="G441" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -12160,7 +12181,7 @@
         <v>2</v>
       </c>
       <c r="G442" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -12183,7 +12204,7 @@
         <v>2</v>
       </c>
       <c r="G443" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -12206,7 +12227,7 @@
         <v>2</v>
       </c>
       <c r="G444" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -12229,7 +12250,7 @@
         <v>2</v>
       </c>
       <c r="G445" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -12252,7 +12273,7 @@
         <v>2</v>
       </c>
       <c r="G446" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -12275,7 +12296,7 @@
         <v>3</v>
       </c>
       <c r="G447" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -12298,7 +12319,7 @@
         <v>2</v>
       </c>
       <c r="G448" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -12321,7 +12342,7 @@
         <v>2</v>
       </c>
       <c r="G449" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -12344,7 +12365,7 @@
         <v>2</v>
       </c>
       <c r="G450" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -12367,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="G451" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -12390,7 +12411,7 @@
         <v>2</v>
       </c>
       <c r="G452" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -12413,7 +12434,7 @@
         <v>3</v>
       </c>
       <c r="G453" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -12436,7 +12457,7 @@
         <v>2</v>
       </c>
       <c r="G454" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -12459,7 +12480,7 @@
         <v>3</v>
       </c>
       <c r="G455" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -12482,7 +12503,7 @@
         <v>2</v>
       </c>
       <c r="G456" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -12505,7 +12526,7 @@
         <v>2</v>
       </c>
       <c r="G457" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -12528,7 +12549,7 @@
         <v>2</v>
       </c>
       <c r="G458" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -12551,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="G459" t="s">
-        <v>265</v>
+        <v>382</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -12574,7 +12595,7 @@
         <v>3</v>
       </c>
       <c r="G460" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -12597,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="G461" t="s">
-        <v>440</v>
+        <v>300</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -12620,7 +12641,7 @@
         <v>3</v>
       </c>
       <c r="G462" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -12643,7 +12664,7 @@
         <v>2</v>
       </c>
       <c r="G463" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -12666,7 +12687,7 @@
         <v>2</v>
       </c>
       <c r="G464" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -12689,7 +12710,7 @@
         <v>2</v>
       </c>
       <c r="G465" t="s">
-        <v>444</v>
+        <v>298</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -12712,7 +12733,7 @@
         <v>2</v>
       </c>
       <c r="G466" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -12735,7 +12756,7 @@
         <v>2</v>
       </c>
       <c r="G467" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -12758,7 +12779,7 @@
         <v>2</v>
       </c>
       <c r="G468" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -12781,7 +12802,7 @@
         <v>3</v>
       </c>
       <c r="G469" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -12804,7 +12825,7 @@
         <v>3</v>
       </c>
       <c r="G470" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -12827,7 +12848,7 @@
         <v>2</v>
       </c>
       <c r="G471" t="s">
-        <v>449</v>
+        <v>222</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -12850,7 +12871,7 @@
         <v>2</v>
       </c>
       <c r="G472" t="s">
-        <v>363</v>
+        <v>456</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -12873,7 +12894,7 @@
         <v>2</v>
       </c>
       <c r="G473" t="s">
-        <v>450</v>
+        <v>263</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -12896,7 +12917,7 @@
         <v>2</v>
       </c>
       <c r="G474" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -12919,7 +12940,7 @@
         <v>2</v>
       </c>
       <c r="G475" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -12942,7 +12963,7 @@
         <v>2</v>
       </c>
       <c r="G476" t="s">
-        <v>453</v>
+        <v>286</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -12965,7 +12986,7 @@
         <v>2</v>
       </c>
       <c r="G477" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -12988,7 +13009,7 @@
         <v>2</v>
       </c>
       <c r="G478" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -13011,7 +13032,7 @@
         <v>2</v>
       </c>
       <c r="G479" t="s">
-        <v>454</v>
+        <v>384</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -13034,7 +13055,7 @@
         <v>2</v>
       </c>
       <c r="G480" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -13057,7 +13078,7 @@
         <v>2</v>
       </c>
       <c r="G481" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -13080,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="G482" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -13103,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="G483" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -13126,7 +13147,7 @@
         <v>2</v>
       </c>
       <c r="G484" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -13149,7 +13170,7 @@
         <v>2</v>
       </c>
       <c r="G485" t="s">
-        <v>209</v>
+        <v>460</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -13172,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="G486" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -13195,7 +13216,7 @@
         <v>2</v>
       </c>
       <c r="G487" t="s">
-        <v>351</v>
+        <v>461</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -13218,7 +13239,7 @@
         <v>2</v>
       </c>
       <c r="G488" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -13241,7 +13262,7 @@
         <v>2</v>
       </c>
       <c r="G489" t="s">
-        <v>352</v>
+        <v>462</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -13264,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="G490" t="s">
-        <v>260</v>
+        <v>463</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -13287,7 +13308,7 @@
         <v>2</v>
       </c>
       <c r="G491" t="s">
-        <v>354</v>
+        <v>464</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -13310,7 +13331,7 @@
         <v>2</v>
       </c>
       <c r="G492" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -13333,7 +13354,7 @@
         <v>2</v>
       </c>
       <c r="G493" t="s">
-        <v>457</v>
+        <v>351</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -13356,7 +13377,7 @@
         <v>2</v>
       </c>
       <c r="G494" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -13379,7 +13400,7 @@
         <v>2</v>
       </c>
       <c r="G495" t="s">
-        <v>458</v>
+        <v>299</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -13402,7 +13423,7 @@
         <v>2</v>
       </c>
       <c r="G496" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -13425,7 +13446,7 @@
         <v>2</v>
       </c>
       <c r="G497" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -13448,7 +13469,7 @@
         <v>3</v>
       </c>
       <c r="G498" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -13471,7 +13492,7 @@
         <v>2</v>
       </c>
       <c r="G499" t="s">
-        <v>460</v>
+        <v>301</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -13494,7 +13515,7 @@
         <v>2</v>
       </c>
       <c r="G500" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -13517,7 +13538,7 @@
         <v>2</v>
       </c>
       <c r="G501" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -13540,7 +13561,7 @@
         <v>3</v>
       </c>
       <c r="G502" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -13563,7 +13584,7 @@
         <v>3</v>
       </c>
       <c r="G503" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -13586,7 +13607,7 @@
         <v>3</v>
       </c>
       <c r="G504" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -13609,7 +13630,7 @@
         <v>2</v>
       </c>
       <c r="G505" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -13632,7 +13653,7 @@
         <v>2</v>
       </c>
       <c r="G506" t="s">
-        <v>325</v>
+        <v>472</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -13655,7 +13676,7 @@
         <v>3</v>
       </c>
       <c r="G507" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -13678,7 +13699,7 @@
         <v>3</v>
       </c>
       <c r="G508" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -13701,7 +13722,7 @@
         <v>2</v>
       </c>
       <c r="G509" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -13724,7 +13745,7 @@
         <v>2</v>
       </c>
       <c r="G510" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -13747,7 +13768,7 @@
         <v>2</v>
       </c>
       <c r="G511" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -13770,7 +13791,7 @@
         <v>2</v>
       </c>
       <c r="G512" t="s">
-        <v>440</v>
+        <v>326</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -13793,7 +13814,7 @@
         <v>2</v>
       </c>
       <c r="G513" t="s">
-        <v>471</v>
+        <v>380</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -13816,7 +13837,7 @@
         <v>2</v>
       </c>
       <c r="G514" t="s">
-        <v>472</v>
+        <v>402</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -13839,7 +13860,7 @@
         <v>2</v>
       </c>
       <c r="G515" t="s">
-        <v>473</v>
+        <v>343</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -13862,7 +13883,7 @@
         <v>2</v>
       </c>
       <c r="G516" t="s">
-        <v>397</v>
+        <v>295</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -13885,7 +13906,7 @@
         <v>2</v>
       </c>
       <c r="G517" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -13908,7 +13929,7 @@
         <v>2</v>
       </c>
       <c r="G518" t="s">
-        <v>364</v>
+        <v>452</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -13931,7 +13952,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -13954,7 +13975,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -13977,7 +13998,7 @@
         <v>2</v>
       </c>
       <c r="G521" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -14000,7 +14021,7 @@
         <v>2</v>
       </c>
       <c r="G522" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -14023,7 +14044,7 @@
         <v>2</v>
       </c>
       <c r="G523" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -14046,7 +14067,7 @@
         <v>2</v>
       </c>
       <c r="G524" t="s">
-        <v>360</v>
+        <v>481</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -14069,7 +14090,7 @@
         <v>2</v>
       </c>
       <c r="G525" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -14092,7 +14113,7 @@
         <v>2</v>
       </c>
       <c r="G526" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -14115,7 +14136,7 @@
         <v>2</v>
       </c>
       <c r="G527" t="s">
-        <v>479</v>
+        <v>352</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -14138,7 +14159,7 @@
         <v>2</v>
       </c>
       <c r="G528" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -14161,7 +14182,7 @@
         <v>2</v>
       </c>
       <c r="G529" t="s">
-        <v>480</v>
+        <v>355</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -14184,7 +14205,7 @@
         <v>2</v>
       </c>
       <c r="G530" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -14207,7 +14228,7 @@
         <v>2</v>
       </c>
       <c r="G531" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -14230,7 +14251,7 @@
         <v>2</v>
       </c>
       <c r="G532" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -14253,7 +14274,7 @@
         <v>2</v>
       </c>
       <c r="G533" t="s">
-        <v>331</v>
+        <v>485</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -14276,7 +14297,7 @@
         <v>2</v>
       </c>
       <c r="G534" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -14299,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="G535" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -14322,7 +14343,7 @@
         <v>2</v>
       </c>
       <c r="G536" t="s">
-        <v>304</v>
+        <v>488</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -14345,7 +14366,7 @@
         <v>2</v>
       </c>
       <c r="G537" t="s">
-        <v>334</v>
+        <v>489</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -14368,7 +14389,7 @@
         <v>2</v>
       </c>
       <c r="G538" t="s">
-        <v>483</v>
+        <v>401</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -14391,7 +14412,7 @@
         <v>2</v>
       </c>
       <c r="G539" t="s">
-        <v>379</v>
+        <v>484</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -14414,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="G540" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -14437,7 +14458,7 @@
         <v>2</v>
       </c>
       <c r="G541" t="s">
-        <v>485</v>
+        <v>384</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -14460,7 +14481,7 @@
         <v>3</v>
       </c>
       <c r="G542" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -14483,7 +14504,7 @@
         <v>3</v>
       </c>
       <c r="G543" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -14506,7 +14527,7 @@
         <v>3</v>
       </c>
       <c r="G544" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -14529,7 +14550,7 @@
         <v>3</v>
       </c>
       <c r="G545" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -14552,7 +14573,7 @@
         <v>3</v>
       </c>
       <c r="G546" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -14575,7 +14596,7 @@
         <v>3</v>
       </c>
       <c r="G547" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -14598,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="G548" t="s">
-        <v>295</v>
+        <v>397</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -14621,7 +14642,7 @@
         <v>2</v>
       </c>
       <c r="G549" t="s">
-        <v>409</v>
+        <v>489</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -14644,7 +14665,7 @@
         <v>3</v>
       </c>
       <c r="G550" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -14667,7 +14688,7 @@
         <v>3</v>
       </c>
       <c r="G551" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -14690,7 +14711,7 @@
         <v>2</v>
       </c>
       <c r="G552" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -14713,7 +14734,7 @@
         <v>2</v>
       </c>
       <c r="G553" t="s">
-        <v>344</v>
+        <v>499</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -14736,7 +14757,7 @@
         <v>3</v>
       </c>
       <c r="G554" t="s">
-        <v>180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -14759,7 +14780,7 @@
         <v>3</v>
       </c>
       <c r="G555" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -14782,7 +14803,7 @@
         <v>3</v>
       </c>
       <c r="G556" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -14805,7 +14826,7 @@
         <v>3</v>
       </c>
       <c r="G557" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -14828,7 +14849,7 @@
         <v>3</v>
       </c>
       <c r="G558" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -14851,7 +14872,7 @@
         <v>3</v>
       </c>
       <c r="G559" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -14874,7 +14895,7 @@
         <v>2</v>
       </c>
       <c r="G560" t="s">
-        <v>260</v>
+        <v>506</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -14897,7 +14918,7 @@
         <v>2</v>
       </c>
       <c r="G561" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -14920,7 +14941,7 @@
         <v>3</v>
       </c>
       <c r="G562" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -14943,7 +14964,7 @@
         <v>3</v>
       </c>
       <c r="G563" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -14966,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="G564" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -14989,7 +15010,7 @@
         <v>3</v>
       </c>
       <c r="G565" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -15012,7 +15033,7 @@
         <v>2</v>
       </c>
       <c r="G566" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -15035,7 +15056,7 @@
         <v>2</v>
       </c>
       <c r="G567" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -15058,7 +15079,7 @@
         <v>3</v>
       </c>
       <c r="G568" t="s">
-        <v>504</v>
+        <v>180</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -15081,7 +15102,7 @@
         <v>3</v>
       </c>
       <c r="G569" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -15104,7 +15125,7 @@
         <v>3</v>
       </c>
       <c r="G570" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -15127,7 +15148,7 @@
         <v>3</v>
       </c>
       <c r="G571" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -15150,7 +15171,7 @@
         <v>3</v>
       </c>
       <c r="G572" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -15173,7 +15194,7 @@
         <v>3</v>
       </c>
       <c r="G573" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -15196,7 +15217,7 @@
         <v>3</v>
       </c>
       <c r="G574" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -15219,7 +15240,7 @@
         <v>3</v>
       </c>
       <c r="G575" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -15242,7 +15263,7 @@
         <v>3</v>
       </c>
       <c r="G576" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -15265,7 +15286,7 @@
         <v>3</v>
       </c>
       <c r="G577" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -15288,7 +15309,7 @@
         <v>3</v>
       </c>
       <c r="G578" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -15311,7 +15332,7 @@
         <v>3</v>
       </c>
       <c r="G579" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -15334,7 +15355,7 @@
         <v>2</v>
       </c>
       <c r="G580" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -15357,7 +15378,7 @@
         <v>2</v>
       </c>
       <c r="G581" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -15380,7 +15401,7 @@
         <v>3</v>
       </c>
       <c r="G582" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -15403,7 +15424,7 @@
         <v>3</v>
       </c>
       <c r="G583" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -15426,7 +15447,7 @@
         <v>3</v>
       </c>
       <c r="G584" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -15449,7 +15470,7 @@
         <v>3</v>
       </c>
       <c r="G585" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -15472,7 +15493,7 @@
         <v>3</v>
       </c>
       <c r="G586" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -15495,7 +15516,7 @@
         <v>3</v>
       </c>
       <c r="G587" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -15518,7 +15539,7 @@
         <v>3</v>
       </c>
       <c r="G588" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -15541,7 +15562,7 @@
         <v>3</v>
       </c>
       <c r="G589" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -15564,7 +15585,7 @@
         <v>2</v>
       </c>
       <c r="G590" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -15587,7 +15608,7 @@
         <v>2</v>
       </c>
       <c r="G591" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -15610,7 +15631,7 @@
         <v>2</v>
       </c>
       <c r="G592" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -15633,7 +15654,7 @@
         <v>2</v>
       </c>
       <c r="G593" t="s">
-        <v>224</v>
+        <v>533</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -15656,7 +15677,7 @@
         <v>2</v>
       </c>
       <c r="G594" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -15679,7 +15700,7 @@
         <v>2</v>
       </c>
       <c r="G595" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -15702,7 +15723,7 @@
         <v>2</v>
       </c>
       <c r="G596" t="s">
-        <v>526</v>
+        <v>283</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -15725,7 +15746,7 @@
         <v>2</v>
       </c>
       <c r="G597" t="s">
-        <v>527</v>
+        <v>329</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -15748,7 +15769,7 @@
         <v>2</v>
       </c>
       <c r="G598" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -15771,7 +15792,7 @@
         <v>2</v>
       </c>
       <c r="G599" t="s">
-        <v>458</v>
+        <v>535</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -15794,7 +15815,7 @@
         <v>2</v>
       </c>
       <c r="G600" t="s">
-        <v>529</v>
+        <v>425</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -15817,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="G601" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -15840,7 +15861,7 @@
         <v>3</v>
       </c>
       <c r="G602" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -15863,7 +15884,7 @@
         <v>3</v>
       </c>
       <c r="G603" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -15886,7 +15907,7 @@
         <v>3</v>
       </c>
       <c r="G604" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -15909,7 +15930,7 @@
         <v>3</v>
       </c>
       <c r="G605" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -15932,7 +15953,7 @@
         <v>2</v>
       </c>
       <c r="G606" t="s">
-        <v>373</v>
+        <v>541</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -15955,7 +15976,7 @@
         <v>2</v>
       </c>
       <c r="G607" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -15978,7 +15999,7 @@
         <v>3</v>
       </c>
       <c r="G608" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -16001,7 +16022,7 @@
         <v>3</v>
       </c>
       <c r="G609" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -16024,7 +16045,7 @@
         <v>3</v>
       </c>
       <c r="G610" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -16047,7 +16068,7 @@
         <v>3</v>
       </c>
       <c r="G611" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -16070,7 +16091,7 @@
         <v>2</v>
       </c>
       <c r="G612" t="s">
-        <v>539</v>
+        <v>429</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -16093,7 +16114,7 @@
         <v>2</v>
       </c>
       <c r="G613" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
